--- a/outputs/4.2Errors.xlsx
+++ b/outputs/4.2Errors.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,15 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\IISc\CVO\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2D3151AA-89FD-4CAA-8481-670982778A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3AA99D-E866-4438-8597-92F791746962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.2Errors" sheetId="1" r:id="rId1"/>
     <sheet name="4.2ErrorsDive" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +365,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -471,6 +487,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -516,8 +622,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1405,26 +1529,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2404,46 +2508,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2948,557 +3012,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4461,10 +3974,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
@@ -4791,103 +4304,104 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>20.340121385692399</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>11.4691156967938</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>7.4168002542260298</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>5.6870174640302702</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>5.1763179159124304</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>5.0679934398481796</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>5.2282814540347804</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>5.4604276641648699</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>5.8336090264513203</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>6.3544870600283003</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
